--- a/MetaSheet_crd_rsk_1.xlsx
+++ b/MetaSheet_crd_rsk_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XY58DQ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED243D63-04B0-4B00-A9E6-FFBF0CDB7018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{647B0A93-4733-452E-974C-5EFFBEC62A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{31361A36-5C97-437F-8595-01CABE376EA5}"/>
   </bookViews>
@@ -37,7 +37,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="24">
+  <si>
+    <t>Source_project_id</t>
+  </si>
+  <si>
+    <t>Source_dataset</t>
+  </si>
   <si>
     <t>Source_table</t>
   </si>
@@ -49,6 +55,12 @@
   </si>
   <si>
     <t>Precision</t>
+  </si>
+  <si>
+    <t>i-ier1-6j336sl3-h9urmye1jqo7ms</t>
+  </si>
+  <si>
+    <t>dbt_lend</t>
   </si>
   <si>
     <t>ORIGINAL</t>
@@ -144,10 +156,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,21 +497,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B534181C-5D39-4D6C-A11D-0B8255474330}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,21 +526,33 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -531,82 +560,130 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>4</v>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>4</v>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>4</v>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29.25">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -630,38 +707,38 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -669,13 +746,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>50</v>
@@ -683,13 +760,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>50</v>
@@ -697,13 +774,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>50</v>
@@ -711,13 +788,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -725,35 +802,35 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
